--- a/template_excel/3就业困难人员管理台账.xlsx
+++ b/template_excel/3就业困难人员管理台账.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSH\Desktop\SQ\台账\空表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\SQ\Tz_Create\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5D4BB2-BF39-489D-A563-B8707C6C545C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49910C99-7402-4877-8F61-096485CA6FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="240" windowWidth="29040" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="1380" windowWidth="25455" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,6 +298,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -305,21 +309,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -598,7 +598,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -646,112 +646,112 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="16" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
@@ -770,10 +770,10 @@
       <c r="Q5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-    </row>
-    <row r="6" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -795,151 +795,145 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
     </row>
     <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A7:S7"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A10:S10"/>
-    <mergeCell ref="L4:Q4"/>
     <mergeCell ref="A3:S3"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A12:S12"/>
@@ -956,6 +950,12 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A11:S11"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A10:S10"/>
+    <mergeCell ref="L4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
